--- a/_ConfigExcels/Datas/avg_story.xlsx
+++ b/_ConfigExcels/Datas/avg_story.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>avg终止事件id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id_start</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,10 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>如果找不到id会一直+1寻找</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int_params</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,6 +119,27 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（写死的）会在第一关想放弃时提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg终止事件id
+（如果找不到id会一直+1寻找）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许反复触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_recur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,6 +272,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,11 +287,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -553,7 +572,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H6" sqref="H6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,10 +582,11 @@
     <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
     <col min="5" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="27" style="2" customWidth="1"/>
     <col min="10" max="10" width="28.875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="22.375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -576,23 +596,25 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -616,23 +638,25 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -654,18 +678,18 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -674,23 +698,26 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
+      <c r="J4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -698,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -715,25 +742,64 @@
       <c r="J5" s="2">
         <v>1999</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
+      <c r="H6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="2">
+        <v>3001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3001</v>
+      </c>
+      <c r="K7" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="2">
+        <v>4001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4001</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
@@ -800,7 +866,8 @@
       <c r="G16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="H6:H8"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C2:D2"/>

--- a/_ConfigExcels/Datas/avg_story.xlsx
+++ b/_ConfigExcels/Datas/avg_story.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害为0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +286,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -285,12 +302,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,7 +583,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,15 +607,15 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -638,15 +649,15 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -686,10 +697,10 @@
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -698,22 +709,22 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -748,12 +759,14 @@
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="2">
@@ -770,7 +783,10 @@
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="2">
         <v>3001</v>
       </c>
@@ -785,12 +801,14 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="2">
         <v>4001</v>
       </c>
@@ -802,12 +820,28 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5001</v>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>

--- a/_ConfigExcels/Datas/avg_story.xlsx
+++ b/_ConfigExcels/Datas/avg_story.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -143,11 +143,40 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>伤害为0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNGEON_OVER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级
+（大的在前面）
+（同级别随机）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>INCODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>伤害为0</t>
+    <t>TOTALBATTLEDAMAGE</t>
+  </si>
+  <si>
+    <t>string_params</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,9 +321,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,6 +340,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,42 +633,47 @@
     <col min="2" max="2" width="7.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="11.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="32.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -641,35 +687,39 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -683,8 +733,10 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,44 +746,52 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -741,173 +801,201 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>1001</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>1999</v>
       </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>2001</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>2001</v>
       </c>
-      <c r="K6" s="2" t="b">
+      <c r="M6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="2">
+        <v>33</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="2">
         <v>3001</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>3001</v>
       </c>
-      <c r="K7" s="2" t="b">
+      <c r="M7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="2">
+      <c r="G8" s="9"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="2">
         <v>4001</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>4001</v>
       </c>
-      <c r="K8" s="2" t="b">
+      <c r="M8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>5001</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>5001</v>
       </c>
-      <c r="K9" s="2" t="b">
+      <c r="M9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G10" s="9"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G11" s="9"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G12" s="9"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G13" s="9"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G14" s="9"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G15" s="9"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/_ConfigExcels/Datas/avg_story.xlsx
+++ b/_ConfigExcels/Datas/avg_story.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -119,10 +119,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（写死的）会在第一关想放弃时提示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -173,6 +169,34 @@
   </si>
   <si>
     <t>string_params</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTLE_STATE</t>
+  </si>
+  <si>
+    <t>战斗失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（写死的）
+会在第一关想放弃时提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗失败（自己放弃）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTLE_LOSE_REASON</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -298,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,8 +354,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,9 +373,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,23 +651,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="7.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="11.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="27" style="2" customWidth="1"/>
     <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="22.375" style="2" customWidth="1"/>
@@ -651,20 +681,20 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
@@ -672,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -697,20 +727,20 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
@@ -718,7 +748,7 @@
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -740,23 +770,24 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -765,50 +796,50 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="2">
         <v>1001</v>
       </c>
@@ -821,18 +852,18 @@
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="2">
         <v>2001</v>
       </c>
@@ -847,10 +878,10 @@
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="K7" s="2">
         <v>3001</v>
       </c>
@@ -865,16 +896,16 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="3"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="2">
         <v>4001</v>
       </c>
@@ -889,24 +920,24 @@
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="C9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="2">
         <v>5001</v>
       </c>
@@ -918,85 +949,172 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2">
+        <v>6001</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6001</v>
+      </c>
+      <c r="M10" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2</v>
+      </c>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="2">
+        <v>7001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>7001</v>
+      </c>
+      <c r="M12" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2">
+        <v>8001</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8001</v>
+      </c>
+      <c r="M13" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/avg_story.xlsx
+++ b/_ConfigExcels/Datas/avg_story.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -202,6 +202,13 @@
   <si>
     <t>==</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_STATE</t>
   </si>
 </sst>
 </file>
@@ -322,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,6 +368,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -653,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -682,19 +692,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="6"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
@@ -728,19 +738,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
@@ -784,10 +794,10 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -799,19 +809,19 @@
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,7 +862,7 @@
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -878,7 +888,7 @@
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
@@ -896,7 +906,7 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
@@ -1076,14 +1086,32 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
       <c r="H15" s="9"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
+      <c r="K15" s="2">
+        <v>9001</v>
+      </c>
+      <c r="L15" s="2">
+        <v>9001</v>
+      </c>
+      <c r="M15" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>

--- a/_ConfigExcels/Datas/avg_story.xlsx
+++ b/_ConfigExcels/Datas/avg_story.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
-        <v>9</v>
+        <v>901</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>43</v>
@@ -1104,34 +1104,70 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2">
-        <v>9001</v>
+        <v>901001</v>
       </c>
       <c r="L15" s="2">
-        <v>9001</v>
+        <v>901001</v>
       </c>
       <c r="M15" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="9">
+        <v>902</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="2">
+        <v>902001</v>
+      </c>
+      <c r="L16" s="2">
+        <v>902001</v>
+      </c>
+      <c r="M16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="9">
+        <v>903</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="2">
+        <v>903001</v>
+      </c>
+      <c r="L17" s="2">
+        <v>903001</v>
+      </c>
+      <c r="M17" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/_ConfigExcels/Datas/avg_story.xlsx
+++ b/_ConfigExcels/Datas/avg_story.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>UI_STATE</t>
+  </si>
+  <si>
+    <t>PLAYAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看广告（失败）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看广告（成功）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -661,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:L17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1169,6 +1181,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1001001</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1001002</v>
+      </c>
+      <c r="M19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1002001</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1002001</v>
+      </c>
+      <c r="M20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C6:C8"/>

--- a/_ConfigExcels/Datas/avg_story.xlsx
+++ b/_ConfigExcels/Datas/avg_story.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="10560"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,202 +27,158 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>*unlock_conds</t>
+  </si>
+  <si>
+    <t>id_start</t>
+  </si>
+  <si>
+    <t>id_end</t>
+  </si>
+  <si>
+    <t>can_recur</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Beans.Com_Trigger</t>
+  </si>
+  <si>
+    <t>list,Beans.Com_UnlockConds</t>
+  </si>
+  <si>
+    <t>int#ref=Tbavg.AvgEvent</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>trigger_type</t>
+  </si>
+  <si>
+    <t>int_params</t>
+  </si>
+  <si>
+    <t>cond_type</t>
+  </si>
+  <si>
+    <t>string_params</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>avg_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初次游玩avg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>avg起始事件id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_start</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_end</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int#ref=Tbavg.AvgEvent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int_params</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,Beans.Com_UnlockConds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*unlock_conds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>触发时点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beans.Com_Trigger</t>
-  </si>
-  <si>
-    <t>trigger_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUNGEON_START</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cond_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>avg终止事件id
-（如果找不到id会一直+1寻找）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否允许反复触发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_recur</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害为0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUNGEON_OVER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>优先级
 （大的在前面）
 （同级别随机）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INCODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOTALBATTLEDAMAGE</t>
-  </si>
-  <si>
-    <t>string_params</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>==</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BATTLE_STATE</t>
-  </si>
-  <si>
-    <t>战斗失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗胜利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+  </si>
+  <si>
+    <t>avg起始事件id</t>
+  </si>
+  <si>
+    <t>avg终止事件id
+（如果找不到id会一直+1寻找，最多找10次）</t>
+  </si>
+  <si>
+    <t>是否允许反复触发</t>
+  </si>
+  <si>
+    <t>初次游玩avg</t>
+  </si>
+  <si>
+    <t>DUNGEON_START</t>
   </si>
   <si>
     <t>（写死的）
 会在第一关想放弃时提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCODE</t>
+  </si>
+  <si>
+    <t>伤害为0</t>
+  </si>
+  <si>
+    <t>DUNGEON_OVER</t>
+  </si>
+  <si>
+    <t>TOTALBATTLEDAMAGE</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>战斗失败</t>
+  </si>
+  <si>
+    <t>BATTLE_STATE</t>
+  </si>
+  <si>
+    <t>BATTLE_LOSE_REASON</t>
+  </si>
+  <si>
+    <t>战斗胜利</t>
   </si>
   <si>
     <t>战斗失败（自己放弃）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BATTLE_LOSE_REASON</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>==</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>切换到商城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI_STATE</t>
   </si>
   <si>
+    <t>看广告（成功）</t>
+  </si>
+  <si>
     <t>PLAYAD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>看广告（失败）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看广告（成功）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,14 +191,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,12 +198,147 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +351,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -312,17 +576,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
@@ -334,82 +587,345 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -667,23 +1183,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="7.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="2" customWidth="1"/>
@@ -696,35 +1212,35 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -742,35 +1258,35 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -788,104 +1304,104 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="56.25" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="2">
         <v>1001</v>
       </c>
       <c r="L5" s="2">
         <v>1999</v>
       </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="2">
         <v>2001</v>
       </c>
@@ -896,13 +1412,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="7" t="s">
-        <v>32</v>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="K7" s="2">
         <v>3001</v>
@@ -914,20 +1430,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+    <row r="8" spans="2:13">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="2">
         <v>4001</v>
       </c>
@@ -938,28 +1454,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+    <row r="9" ht="36.75" customHeight="1" spans="2:13">
+      <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="10">
         <v>0</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="2">
         <v>5001</v>
       </c>
@@ -970,28 +1486,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+    <row r="10" spans="2:13">
+      <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9" t="s">
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="10">
         <v>0</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="2">
         <v>6001</v>
       </c>
@@ -1002,45 +1518,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="9">
+    <row r="11" spans="2:10">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="9">
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="10">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9"/>
+      <c r="H12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10"/>
       <c r="K12" s="2">
         <v>7001</v>
       </c>
@@ -1051,26 +1567,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+    <row r="13" spans="2:13">
+      <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9" t="s">
+      <c r="C13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3"/>
+      <c r="H13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10"/>
       <c r="K13" s="2">
         <v>8001</v>
       </c>
@@ -1081,40 +1597,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="3" t="s">
+    <row r="14" spans="2:10">
+      <c r="B14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="10">
+        <v>901</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
-        <v>901</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="2">
         <v>901001</v>
       </c>
@@ -1125,24 +1641,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="9">
+    <row r="16" spans="2:13">
+      <c r="B16" s="10">
         <v>902</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="C16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="2">
         <v>902001</v>
       </c>
@@ -1153,24 +1669,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="9">
+    <row r="17" spans="2:13">
+      <c r="B17" s="10">
         <v>903</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="C17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="2">
         <v>903001</v>
       </c>
@@ -1181,15 +1697,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13">
       <c r="B19" s="2">
         <v>1001</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>47</v>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1204,15 +1720,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13">
       <c r="B20" s="2">
         <v>1002</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>46</v>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1229,17 +1745,17 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/avg_story.xlsx
+++ b/_ConfigExcels/Datas/avg_story.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -171,14 +176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +190,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -198,147 +198,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,194 +223,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -598,240 +284,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -840,22 +302,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -867,65 +323,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1183,19 +608,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="7.25" style="2" customWidth="1"/>
@@ -1212,7 +637,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,19 +645,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +683,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1266,19 +691,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1304,7 +729,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,22 +737,22 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="56.25" customHeight="1" spans="1:13">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1337,19 +762,19 @@
       <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,48 +785,48 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="2">
         <v>1001</v>
       </c>
       <c r="L5" s="2">
         <v>1999</v>
       </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="10">
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="2">
         <v>2001</v>
       </c>
@@ -1412,12 +837,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="2">
@@ -1430,20 +855,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="10">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="2">
         <v>4001</v>
       </c>
@@ -1454,28 +879,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="36.75" customHeight="1" spans="2:13">
-      <c r="B9" s="10">
+    <row r="9" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>0</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="2">
         <v>5001</v>
       </c>
@@ -1486,28 +911,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="10">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <v>0</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="2">
         <v>6001</v>
       </c>
@@ -1518,45 +943,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>2</v>
       </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="10">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="10">
-        <v>1</v>
-      </c>
-      <c r="J12" s="10"/>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8"/>
       <c r="K12" s="2">
         <v>7001</v>
       </c>
@@ -1567,26 +992,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="10">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="10">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10"/>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8"/>
       <c r="K13" s="2">
         <v>8001</v>
       </c>
@@ -1597,40 +1024,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="10">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="10">
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="8">
         <v>901</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="2">
         <v>901001</v>
       </c>
@@ -1641,24 +1068,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="10">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
         <v>902</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="2">
         <v>902001</v>
       </c>
@@ -1669,24 +1096,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="10">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="8">
         <v>903</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="2">
         <v>903001</v>
       </c>
@@ -1697,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>1001</v>
       </c>
@@ -1720,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>1002</v>
       </c>
@@ -1745,17 +1172,17 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C6:C8"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C6:C8"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/avg_story.xlsx
+++ b/_ConfigExcels/Datas/avg_story.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -131,9 +131,6 @@
     <t>INCODE</t>
   </si>
   <si>
-    <t>伤害为0</t>
-  </si>
-  <si>
     <t>DUNGEON_OVER</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>==</t>
   </si>
   <si>
-    <t>战斗失败</t>
-  </si>
-  <si>
     <t>BATTLE_STATE</t>
   </si>
   <si>
@@ -171,6 +165,38 @@
   </si>
   <si>
     <t>看广告（失败）</t>
+  </si>
+  <si>
+    <t>ON_TRICARD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三选一开始的时候</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三选一结束的时候</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_TRICARD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTLE_STATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗失败（没打过）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNGEON_OVER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束（伤害为0）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -291,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,6 +351,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,19 +677,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
@@ -691,19 +723,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
@@ -747,10 +779,10 @@
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -762,19 +794,19 @@
       <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
@@ -787,7 +819,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>27</v>
@@ -804,377 +836,675 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="2">
-        <v>1001</v>
+        <v>100001</v>
       </c>
       <c r="L5" s="2">
-        <v>1999</v>
+        <v>100002</v>
       </c>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="2">
-        <v>2001</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2001</v>
-      </c>
-      <c r="M6" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15"/>
+      <c r="B7" s="8">
+        <v>200</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="2">
-        <v>3001</v>
+        <v>200001</v>
       </c>
       <c r="L7" s="2">
-        <v>3001</v>
+        <v>200002</v>
       </c>
       <c r="M7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="B8" s="2">
+        <v>201</v>
+      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
       <c r="K8" s="2">
-        <v>4001</v>
+        <v>201001</v>
       </c>
       <c r="L8" s="2">
-        <v>4001</v>
+        <v>201001</v>
       </c>
       <c r="M8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C9" s="17"/>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="2">
-        <v>5001</v>
+        <v>202001</v>
       </c>
       <c r="L9" s="2">
-        <v>5001</v>
+        <v>202001</v>
       </c>
       <c r="M9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="8">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="2">
-        <v>6001</v>
-      </c>
-      <c r="L10" s="2">
-        <v>6001</v>
-      </c>
-      <c r="M10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2</v>
-      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>600</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="2">
-        <v>7001</v>
+        <v>600001</v>
       </c>
       <c r="L12" s="2">
-        <v>7001</v>
+        <v>600001</v>
       </c>
       <c r="M12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B13" s="8">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="2">
-        <v>8001</v>
-      </c>
-      <c r="L13" s="2">
-        <v>8001</v>
-      </c>
-      <c r="M13" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="8">
+        <v>601</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="8"/>
+      <c r="K14" s="2">
+        <v>601001</v>
+      </c>
+      <c r="L14" s="2">
+        <v>601001</v>
+      </c>
+      <c r="M14" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="8">
-        <v>901</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="2">
-        <v>901001</v>
-      </c>
-      <c r="L15" s="2">
-        <v>901001</v>
-      </c>
-      <c r="M15" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
-        <v>902</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="2">
+        <v>602001</v>
+      </c>
+      <c r="L16" s="2">
+        <v>602001</v>
+      </c>
+      <c r="M16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="8">
+        <v>2</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="8">
+        <v>620</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="2">
+        <v>620001</v>
+      </c>
+      <c r="L19" s="2">
+        <v>620001</v>
+      </c>
+      <c r="M19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="8">
+        <v>621</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="2">
+        <v>621001</v>
+      </c>
+      <c r="L22" s="2">
+        <v>621001</v>
+      </c>
+      <c r="M22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="8">
+        <v>700</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="2">
+        <v>700001</v>
+      </c>
+      <c r="L24" s="2">
+        <v>700001</v>
+      </c>
+      <c r="M24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="8">
+        <v>701</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="2">
+        <v>701001</v>
+      </c>
+      <c r="L25" s="2">
+        <v>701001</v>
+      </c>
+      <c r="M25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="8">
+        <v>702</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="2">
+        <v>702001</v>
+      </c>
+      <c r="L26" s="2">
+        <v>702001</v>
+      </c>
+      <c r="M26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="8">
+        <v>703</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="2">
+        <v>703001</v>
+      </c>
+      <c r="L27" s="2">
+        <v>703001</v>
+      </c>
+      <c r="M27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="8">
+        <v>901</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="2">
+        <v>901001</v>
+      </c>
+      <c r="L29" s="2">
+        <v>901001</v>
+      </c>
+      <c r="M29" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="8">
+        <v>902</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="2">
         <v>902001</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L30" s="2">
         <v>902001</v>
       </c>
-      <c r="M16" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="8">
+      <c r="M30" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="8">
         <v>903</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="2">
+        <v>903001</v>
+      </c>
+      <c r="L31" s="2">
+        <v>903001</v>
+      </c>
+      <c r="M31" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="8">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="2">
-        <v>903001</v>
-      </c>
-      <c r="L17" s="2">
-        <v>903001</v>
-      </c>
-      <c r="M17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1001001</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1001002</v>
+      </c>
+      <c r="M33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1002001</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1002001</v>
+      </c>
+      <c r="M34" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>1101</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1001001</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1001002</v>
-      </c>
-      <c r="M19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1002001</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1002001</v>
-      </c>
-      <c r="M20" s="2" t="b">
-        <v>1</v>
+      <c r="K36" s="2">
+        <v>1101001</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1101001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>1201</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1201001</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1201002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C12:C17"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="D2:E2"/>
@@ -1183,6 +1513,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>